--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>756893.7966499343</v>
+        <v>757410.1849456703</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238721</v>
+        <v>2396483.305182807</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461769</v>
+        <v>8681080.949752063</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7620886.735247207</v>
+        <v>7730977.906313853</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>139.4538104113559</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>316.5487336740557</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>235.9258036396515</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>305.6096491809507</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -1066,16 +1068,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>348.2296892492212</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>336.7484257707729</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>285.8222677061717</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.06229518560427</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>157.2973316856983</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>175.5663660205759</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1765,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>133.4850913305375</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -1853,16 +1855,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>254.8134290734539</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2014,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>95.98918911403641</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.85110237228393</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>394.6220495976011</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>268.1928214483892</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>64.32559272825135</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>66.03149870010103</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>102.6005060086621</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>131.6738680346141</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2476,7 +2478,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>55.66823126610245</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>87.95308749070804</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>122.6603790997933</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -2603,7 +2605,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>267.3091065114361</v>
       </c>
     </row>
     <row r="27">
@@ -2722,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.514901004497</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>145.7406737689589</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>135.0859970817781</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>218.5864318137542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2858,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20.25064477991762</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -3035,13 +3037,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>81.58755128763754</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>68.39008952097898</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3184,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>76.74086563202069</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>165.2291699436281</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -3323,16 +3325,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>336.8179925468349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>253.0427663814013</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>192.863227101462</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3505,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>135.0859970817781</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>233.3962462067119</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>115.2540412271704</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>165.6158245190444</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3742,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>260.4812025446911</v>
       </c>
       <c r="D41" t="n">
-        <v>129.1345870873035</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3755,7 +3757,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>84.78215756420494</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>115.2540412271704</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>82.6877623350825</v>
       </c>
       <c r="V44" t="n">
-        <v>218.7903517676366</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4113,7 +4115,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126443</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>92.65523704301719</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>581.3509063575584</v>
+        <v>1645.407563735423</v>
       </c>
       <c r="C2" t="n">
-        <v>188.175404860489</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="D2" t="n">
-        <v>188.175404860489</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E2" t="n">
-        <v>188.175404860489</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F2" t="n">
-        <v>188.175404860489</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W2" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X2" t="n">
-        <v>1378.336361148354</v>
+        <v>2045.90230944682</v>
       </c>
       <c r="Y2" t="n">
-        <v>981.8456520689554</v>
+        <v>2045.90230944682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L3" t="n">
-        <v>623.6437572083089</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083089</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4452,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4483,16 +4485,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1259.966434952091</v>
+        <v>1141.217531504962</v>
       </c>
       <c r="C5" t="n">
-        <v>866.7909334550213</v>
+        <v>748.0420300078927</v>
       </c>
       <c r="D5" t="n">
-        <v>866.7909334550213</v>
+        <v>748.0420300078927</v>
       </c>
       <c r="E5" t="n">
-        <v>464.2074085715658</v>
+        <v>748.0420300078927</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M5" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N5" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O5" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="X5" t="n">
-        <v>2056.951889742887</v>
+        <v>1938.202986295758</v>
       </c>
       <c r="Y5" t="n">
-        <v>1660.461180663488</v>
+        <v>1541.712277216359</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>194.5661265746813</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>678.1322124729945</v>
       </c>
       <c r="M6" t="n">
-        <v>1436.116207068686</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N6" t="n">
-        <v>2021.614212075288</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.0359480608643</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8308301268535</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D7" t="n">
-        <v>360.1977170293682</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E7" t="n">
-        <v>204.6389048885707</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4768,7 +4770,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="Y7" t="n">
-        <v>871.2439667521655</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1197.664015254672</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C8" t="n">
-        <v>1197.664015254672</v>
+        <v>1175.487548789314</v>
       </c>
       <c r="D8" t="n">
-        <v>812.2228864713397</v>
+        <v>790.0464200059819</v>
       </c>
       <c r="E8" t="n">
-        <v>460.4757256135405</v>
+        <v>387.4628951225264</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W8" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X8" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y8" t="n">
-        <v>1598.158760966069</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>837.1036359229597</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C11" t="n">
-        <v>443.9281344258903</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="D11" t="n">
-        <v>58.48700564255802</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E11" t="n">
-        <v>58.48700564255802</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F11" t="n">
-        <v>58.48700564255802</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G11" t="n">
-        <v>58.48700564255802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H11" t="n">
-        <v>58.48700564255802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>358.4764287842802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L11" t="n">
-        <v>851.7967205028091</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M11" t="n">
-        <v>1397.79762054739</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N11" t="n">
-        <v>1925.608904184852</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V11" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W11" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X11" t="n">
-        <v>1634.089090713755</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y11" t="n">
-        <v>1237.598381634357</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154367</v>
+        <v>124.0279748558775</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154367</v>
+        <v>443.767120918104</v>
       </c>
       <c r="L12" t="n">
-        <v>530.879055999857</v>
+        <v>443.767120918104</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>1029.265125924706</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.875066013061</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O12" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P12" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5163,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>663.3212008849971</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W13" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>923.4577156540399</v>
+        <v>764.5715220321224</v>
       </c>
       <c r="C14" t="n">
-        <v>530.2822141569704</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D14" t="n">
-        <v>530.2822141569704</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E14" t="n">
         <v>371.396020535053</v>
@@ -5270,58 +5272,58 @@
         <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>550.9450990378335</v>
+        <v>173.6308686433306</v>
       </c>
       <c r="L14" t="n">
-        <v>1044.265390756362</v>
+        <v>666.9511603618595</v>
       </c>
       <c r="M14" t="n">
-        <v>1044.265390756362</v>
+        <v>1212.95206040644</v>
       </c>
       <c r="N14" t="n">
-        <v>1572.076674393824</v>
+        <v>1740.763344043902</v>
       </c>
       <c r="O14" t="n">
-        <v>2012.116275286153</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.303767417675</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>2109.895775511779</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V14" t="n">
-        <v>2109.895775511779</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="W14" t="n">
-        <v>2109.895775511779</v>
+        <v>1738.896740480066</v>
       </c>
       <c r="X14" t="n">
-        <v>1720.443170444836</v>
+        <v>1561.556976822918</v>
       </c>
       <c r="Y14" t="n">
-        <v>1323.952461365437</v>
+        <v>1165.066267743519</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L15" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.16403979929</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N15" t="n">
-        <v>1725.662044805892</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O15" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X15" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C16" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D16" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E16" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F16" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G16" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5464,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1228.513125265401</v>
+        <v>2277.454568280369</v>
       </c>
       <c r="C17" t="n">
-        <v>835.3376237683314</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D17" t="n">
-        <v>449.8964949849991</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712875</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>2142.147902636597</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U17" t="n">
-        <v>1886.395173071196</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V17" t="n">
-        <v>1886.395173071196</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W17" t="n">
-        <v>1629.007870976798</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X17" t="n">
-        <v>1629.007870976798</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y17" t="n">
-        <v>1629.007870976798</v>
+        <v>2677.949313991765</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1436.116207068686</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1436.116207068686</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1952.636489659666</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.257858376064</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.7856656383638</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="C19" t="n">
-        <v>210.7856656383638</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="D19" t="n">
-        <v>210.7856656383638</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="E19" t="n">
-        <v>210.7856656383638</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="F19" t="n">
-        <v>210.7856656383638</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="G19" t="n">
-        <v>210.7856656383638</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>210.7856656383638</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>77.69124027544166</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>824.8590032756731</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>779.5548594652853</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>779.5548594652853</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U19" t="n">
-        <v>494.1160677071862</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V19" t="n">
-        <v>494.1160677071862</v>
+        <v>442.408306655803</v>
       </c>
       <c r="W19" t="n">
-        <v>210.7856656383638</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7856656383638</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.7856656383638</v>
+        <v>159.0779045869806</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1548.519290316325</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="C20" t="n">
-        <v>1548.519290316325</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="D20" t="n">
-        <v>1163.078161532992</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E20" t="n">
-        <v>1163.078161532992</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F20" t="n">
-        <v>746.1837230629702</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G20" t="n">
-        <v>333.0209675509734</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U20" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V20" t="n">
-        <v>3105.956385205776</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W20" t="n">
-        <v>2734.957350174064</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X20" t="n">
-        <v>2345.50474510712</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y20" t="n">
-        <v>1949.014036027722</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C21" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D21" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>900.7358324498676</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>1220.474978512094</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>1704.041064410407</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1704.041064410407</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>2359.819035620967</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>2465.969924934489</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P21" t="n">
-        <v>2871.591293650886</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R21" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S21" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T21" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U21" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V21" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W21" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X21" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y21" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>778.3581315543667</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C22" t="n">
-        <v>608.1530136203559</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D22" t="n">
-        <v>608.1530136203559</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E22" t="n">
-        <v>543.177667430203</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F22" t="n">
-        <v>385.851732643176</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G22" t="n">
-        <v>217.5976787426216</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="V22" t="n">
-        <v>963.5661502456679</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="W22" t="n">
-        <v>963.5661502456679</v>
+        <v>2271.207846199679</v>
       </c>
       <c r="X22" t="n">
-        <v>963.5661502456679</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.5661502456679</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1294.75984656959</v>
+        <v>1398.396721325814</v>
       </c>
       <c r="C23" t="n">
-        <v>1294.75984656959</v>
+        <v>1398.396721325814</v>
       </c>
       <c r="D23" t="n">
-        <v>1294.75984656959</v>
+        <v>1398.396721325814</v>
       </c>
       <c r="E23" t="n">
-        <v>892.1763216861347</v>
+        <v>995.813196442359</v>
       </c>
       <c r="F23" t="n">
-        <v>475.2818832161124</v>
+        <v>578.9187579723367</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>165.7560024603399</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6014,25 +6016,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>2934.959564385627</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T23" t="n">
-        <v>2711.458961945044</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U23" t="n">
-        <v>2455.706232379643</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V23" t="n">
-        <v>2455.706232379643</v>
+        <v>2559.343107135867</v>
       </c>
       <c r="W23" t="n">
-        <v>2084.70719734793</v>
+        <v>2188.344072104155</v>
       </c>
       <c r="X23" t="n">
-        <v>1695.254592280987</v>
+        <v>1798.891467037211</v>
       </c>
       <c r="Y23" t="n">
-        <v>1695.254592280987</v>
+        <v>1798.891467037211</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C24" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D24" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H24" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>822.3203958792419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>1305.886481777555</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1933.658131404236</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>2589.436102614795</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>3105.956385205776</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R24" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S24" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T24" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U24" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V24" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W24" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X24" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y24" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>321.165748153993</v>
+        <v>2260.73989929665</v>
       </c>
       <c r="C25" t="n">
-        <v>150.9606302199822</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D25" t="n">
-        <v>150.9606302199822</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E25" t="n">
-        <v>150.9606302199822</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S25" t="n">
-        <v>963.5661502456679</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="V25" t="n">
-        <v>963.5661502456679</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="W25" t="n">
-        <v>963.5661502456679</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="X25" t="n">
-        <v>729.485828028651</v>
+        <v>2669.059979171308</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.3737668452943</v>
+        <v>2445.947917987952</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2104.464461641553</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.288960144484</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D26" t="n">
-        <v>1325.847831361151</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E26" t="n">
-        <v>923.2643064776958</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F26" t="n">
         <v>799.3649336496217</v>
@@ -6251,25 +6253,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T26" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U26" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V26" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W26" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X26" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="Y26" t="n">
-        <v>2504.95920735295</v>
+        <v>2797.954272994898</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6311,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F28" t="n">
-        <v>2691.714663140105</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G28" t="n">
-        <v>2523.46060923955</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H28" t="n">
-        <v>2367.982058201044</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I28" t="n">
-        <v>2234.887632838122</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J28" t="n">
         <v>2204.509362664224</v>
@@ -6409,25 +6411,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S28" t="n">
-        <v>3105.956385205776</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="T28" t="n">
-        <v>3105.956385205776</v>
+        <v>2755.927499601498</v>
       </c>
       <c r="U28" t="n">
-        <v>2820.517593447677</v>
+        <v>2470.488707843399</v>
       </c>
       <c r="V28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="W28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="X28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y28" t="n">
-        <v>2820.517593447677</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1575.390864596628</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C29" t="n">
-        <v>1575.390864596628</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.390864596628</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E29" t="n">
-        <v>1354.596489027179</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F29" t="n">
-        <v>937.702050557157</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G29" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6494,19 +6496,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2677.949313991765</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>2335.842504695284</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W29" t="n">
-        <v>1964.843469663571</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X29" t="n">
-        <v>1575.390864596628</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y29" t="n">
-        <v>1575.390864596628</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6542,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L30" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M30" t="n">
-        <v>1606.310991511064</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N30" t="n">
         <v>1629.56928853388</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>684.0320477807597</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>528.4732356399622</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>371.1473008529352</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
         <v>62.11912770411553</v>
@@ -6643,28 +6645,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>839.6651608782449</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U31" t="n">
-        <v>839.6651608782449</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V31" t="n">
-        <v>839.6651608782449</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W31" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X31" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>923.1474259518279</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C32" t="n">
-        <v>529.9719244547584</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D32" t="n">
-        <v>144.5307956714262</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E32" t="n">
-        <v>62.11912770411553</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F32" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G32" t="n">
         <v>62.11912770411553</v>
@@ -6722,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T32" t="n">
-        <v>2677.949313991765</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="U32" t="n">
-        <v>2422.196584426364</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="V32" t="n">
-        <v>2080.089775129883</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="W32" t="n">
-        <v>1709.09074009817</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="X32" t="n">
-        <v>1319.638135031227</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y32" t="n">
-        <v>923.1474259518279</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M33" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N33" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>573.555937604101</v>
+        <v>2920.748366514475</v>
       </c>
       <c r="C34" t="n">
-        <v>573.555937604101</v>
+        <v>2750.543248580464</v>
       </c>
       <c r="D34" t="n">
-        <v>573.555937604101</v>
+        <v>2594.910135482979</v>
       </c>
       <c r="E34" t="n">
-        <v>573.555937604101</v>
+        <v>2439.351323342181</v>
       </c>
       <c r="F34" t="n">
-        <v>416.230002817074</v>
+        <v>2282.025388555154</v>
       </c>
       <c r="G34" t="n">
-        <v>247.9759489165196</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H34" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I34" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N34" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O34" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P34" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V34" t="n">
-        <v>796.6679987874577</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W34" t="n">
-        <v>796.6679987874577</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X34" t="n">
-        <v>796.6679987874577</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y34" t="n">
-        <v>573.555937604101</v>
+        <v>3105.956385205776</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>524.5392950451601</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="C35" t="n">
-        <v>524.5392950451601</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D35" t="n">
-        <v>524.5392950451601</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E35" t="n">
-        <v>524.5392950451601</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F35" t="n">
-        <v>524.5392950451601</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H35" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U35" t="n">
-        <v>2422.196584426364</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V35" t="n">
-        <v>2081.976389934612</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="W35" t="n">
-        <v>1710.977354902899</v>
+        <v>2089.19046310913</v>
       </c>
       <c r="X35" t="n">
-        <v>1321.524749835956</v>
+        <v>1833.591709188522</v>
       </c>
       <c r="Y35" t="n">
-        <v>925.034040756557</v>
+        <v>1833.591709188522</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>1271.186936128453</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>1898.958585755135</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>2554.736556965694</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>3071.256839556675</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
         <v>62.11912770411553</v>
@@ -7120,25 +7122,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>963.5661502456679</v>
+        <v>849.2563164731562</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>613.5372646413903</v>
       </c>
       <c r="U37" t="n">
-        <v>768.7548097391407</v>
+        <v>328.0984728832913</v>
       </c>
       <c r="V37" t="n">
-        <v>502.7754645599649</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W37" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X37" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>522.652680240431</v>
+        <v>1510.526376601847</v>
       </c>
       <c r="C38" t="n">
-        <v>386.2021781376249</v>
+        <v>1117.350875104777</v>
       </c>
       <c r="D38" t="n">
-        <v>386.2021781376249</v>
+        <v>1117.350875104777</v>
       </c>
       <c r="E38" t="n">
-        <v>386.2021781376249</v>
+        <v>714.7673502213215</v>
       </c>
       <c r="F38" t="n">
-        <v>386.2021781376249</v>
+        <v>297.8729117512993</v>
       </c>
       <c r="G38" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7199,25 +7201,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.196584426364</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V38" t="n">
-        <v>2080.089775129883</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W38" t="n">
-        <v>1709.09074009817</v>
+        <v>2696.964436459586</v>
       </c>
       <c r="X38" t="n">
-        <v>1319.638135031227</v>
+        <v>2307.511831392642</v>
       </c>
       <c r="Y38" t="n">
-        <v>923.1474259518279</v>
+        <v>1911.021122313243</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>787.6208502301403</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L39" t="n">
-        <v>1271.186936128453</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>1898.958585755135</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>2554.736556965694</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>3071.256839556675</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>387.9573587356116</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
         <v>62.11912770411553</v>
@@ -7360,22 +7362,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X40" t="n">
-        <v>796.2774386102695</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y40" t="n">
-        <v>573.1653774269129</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2142.457375356031</v>
+        <v>1557.872172372308</v>
       </c>
       <c r="C41" t="n">
-        <v>1749.281873858962</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D41" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T41" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U41" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V41" t="n">
-        <v>2939.442830146827</v>
+        <v>2725.856662194817</v>
       </c>
       <c r="W41" t="n">
-        <v>2939.442830146827</v>
+        <v>2354.857627163104</v>
       </c>
       <c r="X41" t="n">
-        <v>2939.442830146827</v>
+        <v>2354.857627163104</v>
       </c>
       <c r="Y41" t="n">
-        <v>2542.952121067428</v>
+        <v>1958.366918083705</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7496,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>147.7576706982619</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>147.7576706982619</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>147.7576706982619</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>147.7576706982619</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>147.7576706982619</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>147.7576706982619</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>147.7576706982619</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7591,28 +7593,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R43" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>636.8490770607943</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U43" t="n">
-        <v>636.8490770607943</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V43" t="n">
-        <v>370.8697318816186</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W43" t="n">
-        <v>370.8697318816186</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>370.8697318816186</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>147.7576706982619</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1665.394817750351</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C44" t="n">
-        <v>1665.394817750351</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D44" t="n">
-        <v>1279.953688967018</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3701640835627</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
-        <v>318.7636682303387</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>864.7645682749193</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1392.575851912381</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>1832.61545280471</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936232</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T44" t="n">
-        <v>2142.147902636597</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U44" t="n">
-        <v>1886.395173071196</v>
+        <v>2855.919837889168</v>
       </c>
       <c r="V44" t="n">
-        <v>1665.394817750351</v>
+        <v>2855.919837889168</v>
       </c>
       <c r="W44" t="n">
-        <v>1665.394817750351</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="X44" t="n">
-        <v>1665.394817750351</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.394817750351</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154361</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>530.8790559998569</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>858.0088487631995</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.506853769802</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O45" t="n">
-        <v>1960.027136360783</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2038.931431892307</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>2038.931431892307</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>2038.931431892307</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>1883.372619751509</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>1726.046684964482</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>1557.792631063928</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645569</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519369</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857633</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888842</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.350142930551</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707129</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.64850507718</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>2241.747515709757</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>2038.931431892307</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>2038.931431892307</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>2038.931431892307</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V46" t="n">
-        <v>2038.931431892307</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W46" t="n">
-        <v>2038.931431892307</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X46" t="n">
-        <v>2038.931431892307</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>2038.931431892307</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7991,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600596</v>
+        <v>212.9227975229102</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,16 +8060,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>349.2438226594827</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>674.5394322581651</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8216,7 +8218,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8228,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P5" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,19 +8297,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>238.3374974274118</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O6" t="n">
-        <v>440.1969457594874</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8453,10 +8455,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8470,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,25 +8531,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>471.7186805737883</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8690,7 +8692,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8705,7 +8707,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>464.6079711628806</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8766,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>159.9343611255898</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8789,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>239.7287152499928</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8924,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901334</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -8942,10 +8944,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>149.8974233269835</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>270.6001074205032</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>502.5559668112506</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9182,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.45345285401062</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>199.9106794075979</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,7 +9719,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9732,7 +9734,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9957,10 +9959,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -9972,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>376.8285690715891</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>108.8653421701425</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10668,7 +10670,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10680,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10902,7 +10904,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10917,7 +10919,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.1334109295184</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11066,7 +11068,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11142,7 +11144,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11154,10 +11156,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11376,19 +11378,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>422.8212561536984</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>571.8744206036794</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22550,16 +22552,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>269.5773175455209</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22601,19 +22603,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>69.00934534221801</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22790,19 +22792,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>176.7996904456705</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -22847,7 +22849,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>79.948429835323</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22939,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22954,16 +22956,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>144.1400749395018</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23021,19 +23023,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50.32800038539966</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>75.97706831454906</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23081,7 +23083,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -23182,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>95.76444978932722</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>125.8914505528555</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23501,7 +23503,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>241.2603579489226</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -23555,10 +23557,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>209.9917129956978</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>60.39847475326023</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
         <v>131.7634811092929</v>
@@ -23704,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>255.7586551515612</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>112.4756156079415</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -23902,16 +23904,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>70.5823242475125</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>155.9368206069922</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.867748656681783</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>52.64939848078501</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>89.67763129113816</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24181,16 +24183,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947457</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>218.2417139205122</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>33.17455147374585</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>112.8348354885682</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24373,7 +24375,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>67.79958794844873</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -24412,7 +24414,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>233.3618613134482</v>
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>290.0651149855287</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
@@ -24509,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>125.2166954771688</v>
       </c>
     </row>
     <row r="27">
@@ -24610,19 +24612,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>28.23777443465976</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>87.62118754448929</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>254.1577494003206</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>179.9712578208667</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,22 +24843,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>146.3208685816313</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>316.9701383469833</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>152.8755068951985</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>89.83064772952822</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>98.09038178375587</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25141,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25160,16 +25162,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.867748656681897</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>132.5153126348725</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25321,7 +25323,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
@@ -25360,19 +25362,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>87.62118754448949</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>89.72117673905609</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25391,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>254.1577494003206</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>175.6348817501649</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25600,22 +25602,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>66.12369447580232</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>128.7625439374076</v>
       </c>
       <c r="D41" t="n">
-        <v>252.4521304081954</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25685,10 +25687,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25804,7 +25806,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>46.98132354508795</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>170.5074399346649</v>
       </c>
       <c r="V44" t="n">
-        <v>119.8953894358802</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,16 +26031,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>61.26852848510376</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
         <v>131.7634811092929</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>621418.6194919244</v>
+        <v>621418.6194919242</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>621418.6194919244</v>
+        <v>621418.6194919242</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>621418.6194919242</v>
+        <v>621418.6194919244</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621418.6194919248</v>
+        <v>621418.6194919244</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621418.6194919244</v>
+        <v>621418.6194919246</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>621418.6194919245</v>
+        <v>700088.7629905549</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>700088.7629905549</v>
+        <v>700088.7629905551</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700088.7629905549</v>
+        <v>700088.7629905551</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>700088.7629905553</v>
+        <v>700088.7629905549</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700088.7629905551</v>
+        <v>700088.7629905549</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>621418.6194919244</v>
+        <v>700088.7629905549</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="C2" t="n">
         <v>191980.2613012998</v>
@@ -26323,37 +26325,37 @@
         <v>191980.2613012998</v>
       </c>
       <c r="F2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="G2" t="n">
-        <v>191980.2613012999</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="H2" t="n">
+        <v>216278.5473416248</v>
+      </c>
+      <c r="I2" t="n">
         <v>216278.5473416247</v>
       </c>
-      <c r="I2" t="n">
-        <v>216278.5473416248</v>
-      </c>
       <c r="J2" t="n">
-        <v>216278.5473416249</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="K2" t="n">
         <v>216278.5473416247</v>
       </c>
       <c r="L2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="M2" t="n">
         <v>216278.5473416247</v>
       </c>
       <c r="N2" t="n">
+        <v>216278.5473416248</v>
+      </c>
+      <c r="O2" t="n">
+        <v>216278.5473416248</v>
+      </c>
+      <c r="P2" t="n">
         <v>216278.5473416247</v>
-      </c>
-      <c r="O2" t="n">
-        <v>216278.5473416247</v>
-      </c>
-      <c r="P2" t="n">
-        <v>191980.2613012999</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50726.82133126163</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44538.95791520675</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>23353.24319649382</v>
       </c>
       <c r="D4" t="n">
-        <v>23353.24319649383</v>
+        <v>23353.24319649382</v>
       </c>
       <c r="E4" t="n">
         <v>23353.24319649382</v>
@@ -26430,7 +26432,7 @@
         <v>23353.24319649382</v>
       </c>
       <c r="G4" t="n">
-        <v>23353.24319649382</v>
+        <v>26357.40659176976</v>
       </c>
       <c r="H4" t="n">
         <v>26357.40659176976</v>
@@ -26457,7 +26459,7 @@
         <v>26357.40659176976</v>
       </c>
       <c r="P4" t="n">
-        <v>23353.24319649382</v>
+        <v>26357.40659176976</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99154.24516411204</v>
+        <v>-99154.24516411196</v>
       </c>
       <c r="C6" t="n">
-        <v>99041.56082763281</v>
+        <v>99041.56082763286</v>
       </c>
       <c r="D6" t="n">
-        <v>99041.56082763278</v>
+        <v>99041.56082763291</v>
       </c>
       <c r="E6" t="n">
-        <v>132669.1608276328</v>
+        <v>132669.1608276329</v>
       </c>
       <c r="F6" t="n">
         <v>132669.1608276329</v>
       </c>
       <c r="G6" t="n">
-        <v>132669.1608276329</v>
+        <v>91983.78236346555</v>
       </c>
       <c r="H6" t="n">
-        <v>92775.17148732307</v>
+        <v>142710.6036947272</v>
       </c>
       <c r="I6" t="n">
         <v>142710.6036947272</v>
       </c>
       <c r="J6" t="n">
-        <v>-12028.8306708761</v>
+        <v>-12028.83067087619</v>
       </c>
       <c r="K6" t="n">
         <v>142710.6036947272</v>
       </c>
       <c r="L6" t="n">
+        <v>142710.6036947271</v>
+      </c>
+      <c r="M6" t="n">
+        <v>142710.6036947271</v>
+      </c>
+      <c r="N6" t="n">
         <v>142710.6036947272</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
+        <v>98171.64577952046</v>
+      </c>
+      <c r="P6" t="n">
         <v>142710.6036947272</v>
-      </c>
-      <c r="N6" t="n">
-        <v>142710.6036947271</v>
-      </c>
-      <c r="O6" t="n">
-        <v>142710.6036947271</v>
-      </c>
-      <c r="P6" t="n">
-        <v>132669.1608276329</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34711,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359632</v>
+        <v>63.35896009881382</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>259.1834758025645</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>582.1523102088532</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34948,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P5" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>148.7405620940785</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O6" t="n">
-        <v>347.5093868705986</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35190,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>381.6583337168701</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35425,7 +35427,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>314.3065239219554</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>77.4899037922565</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.7405620940788</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>127.593836910896</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35662,10 +35664,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.39872490859134</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,19 +35734,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>178.2129853711913</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>417.183853957084</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35902,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.465299698096623</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>107.223120518709</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>35.05004611020369</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36452,7 +36454,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36692,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>23.49322931597588</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37400,7 +37402,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37637,7 +37639,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.0500461102038</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37874,10 +37876,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>330.4341341043865</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757410.1849456703</v>
+        <v>752172.7225648283</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2396483.305182807</v>
+        <v>2396483.305182806</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8681080.949752063</v>
+        <v>8681080.949752061</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>329.5624551834525</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>316.5487336740557</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>97.61153143263803</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>235.9258036396515</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>63.42504493423199</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>206.6890709537359</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>336.7484257707729</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>90.49856892715118</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>285.8222677061717</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.80272306217923</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
@@ -1587,16 +1587,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914581</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>155.6053465906476</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>65.21547881961733</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -1627,7 +1627,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>175.5663660205759</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
@@ -1827,7 +1827,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>113.1667354347867</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>133.4850913305375</v>
+        <v>156.4706510831692</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -1900,13 +1900,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>95.98918911403641</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>394.6220495976011</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>240.20623200167</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2304,7 +2304,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>66.03149870010103</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6005060086621</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>229.2671475085639</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>55.66823126610245</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>397.6026557728152</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -2575,7 +2575,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>267.3091065114361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>145.7406737689589</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -2775,7 +2775,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>22.90463185117014</v>
       </c>
       <c r="C29" t="n">
-        <v>135.0859970817781</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>175.347826408095</v>
       </c>
       <c r="T31" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -3031,10 +3031,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3043,13 +3043,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>68.39008952097898</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>285.3496554968922</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>76.74086563202069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>407.0056421228219</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -3325,16 +3325,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>253.0427663814013</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
@@ -3483,10 +3483,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>95.98918911403638</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>233.3962462067119</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>220.2546536873335</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U40" t="n">
-        <v>115.2540412271704</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -3742,10 +3742,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>260.4812025446911</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>54.7004171927703</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>115.2540412271704</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -3963,7 +3963,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>82.6877623350825</v>
+        <v>26.80574342287066</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1645.407563735423</v>
+        <v>380.2043389737178</v>
       </c>
       <c r="C2" t="n">
-        <v>1252.232062238354</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D2" t="n">
-        <v>866.7909334550213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E2" t="n">
-        <v>464.2074085715658</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N2" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O2" t="n">
-        <v>2180.802944936231</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.648505077179</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="X2" t="n">
-        <v>2045.90230944682</v>
+        <v>1177.189793764514</v>
       </c>
       <c r="Y2" t="n">
-        <v>2045.90230944682</v>
+        <v>780.6990846851147</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>47.3129701015436</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>47.3129701015436</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083082</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4521,19 +4521,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1141.217531504962</v>
+        <v>917.7169290643797</v>
       </c>
       <c r="C5" t="n">
-        <v>748.0420300078927</v>
+        <v>524.5414275673102</v>
       </c>
       <c r="D5" t="n">
-        <v>748.0420300078927</v>
+        <v>524.5414275673102</v>
       </c>
       <c r="E5" t="n">
-        <v>748.0420300078927</v>
+        <v>524.5414275673102</v>
       </c>
       <c r="F5" t="n">
-        <v>509.7331374425881</v>
+        <v>524.5414275673102</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>111.3786720553133</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2327.655591362701</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.655591362701</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V5" t="n">
-        <v>2327.655591362701</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W5" t="n">
-        <v>2327.655591362701</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X5" t="n">
-        <v>1938.202986295758</v>
+        <v>1714.702383855175</v>
       </c>
       <c r="Y5" t="n">
-        <v>1541.712277216359</v>
+        <v>1318.211674775777</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>194.5661265746813</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>678.1322124729945</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1263.630217479596</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1849.128222486198</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O6" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.663050286384</v>
+        <v>968.782859969574</v>
       </c>
       <c r="C8" t="n">
-        <v>1175.487548789314</v>
+        <v>968.782859969574</v>
       </c>
       <c r="D8" t="n">
-        <v>790.0464200059819</v>
+        <v>968.782859969574</v>
       </c>
       <c r="E8" t="n">
-        <v>387.4628951225264</v>
+        <v>968.782859969574</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154359</v>
+        <v>551.8884214995518</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>138.7256659875549</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>138.7256659875549</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028082</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.797620547389</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184851</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.648505077179</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.648505077179</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.648505077179</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.157795997781</v>
+        <v>968.782859969574</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>858.0088487631988</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631988</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154359</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1568.663050286384</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C11" t="n">
-        <v>1568.663050286384</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D11" t="n">
         <v>1279.953688967018</v>
@@ -5032,61 +5032,61 @@
         <v>460.4757256135405</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154359</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="L11" t="n">
-        <v>540.6332618200724</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M11" t="n">
-        <v>1086.634161864653</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N11" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2293.12050198407</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>2069.619899543487</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.648505077179</v>
+        <v>2069.619899543487</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.648505077179</v>
+        <v>2069.619899543487</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.648505077179</v>
+        <v>2069.619899543487</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.648505077179</v>
+        <v>2069.619899543487</v>
       </c>
       <c r="Y11" t="n">
-        <v>1969.157795997781</v>
+        <v>1673.129190464088</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>124.0279748558775</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>443.767120918104</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>443.767120918104</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1029.265125924706</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N12" t="n">
-        <v>1614.763130931308</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
         <v>2131.283413522289</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154359</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154359</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>764.5715220321224</v>
+        <v>902.9086389396575</v>
       </c>
       <c r="C14" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="D14" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E14" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F14" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G14" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>173.6308686433306</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>666.9511603618595</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M14" t="n">
-        <v>1212.95206040644</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N14" t="n">
-        <v>1740.763344043902</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>2180.802944936231</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U14" t="n">
-        <v>2109.895775511778</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V14" t="n">
-        <v>2109.895775511778</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W14" t="n">
-        <v>1738.896740480066</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X14" t="n">
-        <v>1561.556976822918</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y14" t="n">
-        <v>1165.066267743519</v>
+        <v>968.782859969574</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154343</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1436.116207068685</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N15" t="n">
-        <v>1849.128222486198</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O15" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5399,10 +5399,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X15" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>713.0409408113302</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U16" t="n">
-        <v>427.6021490532311</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6228038740554</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2277.454568280369</v>
+        <v>1346.588908101251</v>
       </c>
       <c r="C17" t="n">
-        <v>2142.621142693967</v>
+        <v>1188.537745390979</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.180013910635</v>
+        <v>803.0966166076471</v>
       </c>
       <c r="E17" t="n">
-        <v>1354.596489027179</v>
+        <v>803.0966166076471</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5539,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T17" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U17" t="n">
-        <v>2677.949313991765</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V17" t="n">
-        <v>2677.949313991765</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W17" t="n">
-        <v>2677.949313991765</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X17" t="n">
-        <v>2677.949313991765</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="Y17" t="n">
-        <v>2677.949313991765</v>
+        <v>1747.083653812648</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.0779045869806</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C19" t="n">
-        <v>159.0779045869806</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D19" t="n">
-        <v>159.0779045869806</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E19" t="n">
-        <v>159.0779045869806</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F19" t="n">
-        <v>159.0779045869806</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="G19" t="n">
         <v>62.11912770411553</v>
@@ -5703,22 +5703,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U19" t="n">
-        <v>442.408306655803</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V19" t="n">
-        <v>442.408306655803</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W19" t="n">
-        <v>159.0779045869806</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X19" t="n">
-        <v>159.0779045869806</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.0779045869806</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>524.5392950451601</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C20" t="n">
-        <v>524.5392950451601</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D20" t="n">
-        <v>524.5392950451601</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>524.5392950451601</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>524.5392950451601</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5776,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031227</v>
+        <v>2473.871222561389</v>
       </c>
       <c r="Y20" t="n">
-        <v>923.1474259518279</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U22" t="n">
-        <v>2820.517593447677</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V22" t="n">
-        <v>2554.538248268502</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W22" t="n">
-        <v>2271.207846199679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1398.396721325814</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C23" t="n">
-        <v>1398.396721325814</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D23" t="n">
-        <v>1398.396721325814</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>995.813196442359</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>578.9187579723367</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>165.7560024603399</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6013,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2559.343107135867</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="W23" t="n">
-        <v>2188.344072104155</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X23" t="n">
-        <v>1798.891467037211</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y23" t="n">
-        <v>1798.891467037211</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2260.73989929665</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>2903.140301388325</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="T25" t="n">
-        <v>2903.140301388325</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>2903.140301388325</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
-        <v>2903.140301388325</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>2903.140301388325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>2669.059979171308</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2445.947917987952</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2397.459527283501</v>
+        <v>1741.904419655577</v>
       </c>
       <c r="C26" t="n">
-        <v>2004.284025786432</v>
+        <v>1741.904419655577</v>
       </c>
       <c r="D26" t="n">
-        <v>1618.8428970031</v>
+        <v>1741.904419655577</v>
       </c>
       <c r="E26" t="n">
-        <v>1216.259372119644</v>
+        <v>1339.320894772122</v>
       </c>
       <c r="F26" t="n">
-        <v>799.3649336496217</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G26" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6256,22 +6256,22 @@
         <v>3067.963471491298</v>
       </c>
       <c r="T26" t="n">
-        <v>3067.963471491298</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U26" t="n">
-        <v>3067.963471491298</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="V26" t="n">
-        <v>3067.963471491298</v>
+        <v>2502.356059754233</v>
       </c>
       <c r="W26" t="n">
-        <v>3067.963471491298</v>
+        <v>2131.357024722521</v>
       </c>
       <c r="X26" t="n">
-        <v>3067.963471491298</v>
+        <v>1741.904419655577</v>
       </c>
       <c r="Y26" t="n">
-        <v>2797.954272994898</v>
+        <v>1741.904419655577</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>568.1699486069232</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N27" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O27" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P27" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K28" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M28" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N28" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O28" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P28" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>2903.140301388325</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>2755.927499601498</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>2470.488707843399</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>2204.509362664224</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>522.652680240431</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C29" t="n">
-        <v>386.2021781376249</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D29" t="n">
-        <v>386.2021781376249</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E29" t="n">
-        <v>386.2021781376249</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F29" t="n">
-        <v>386.2021781376249</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
         <v>62.11912770411553</v>
@@ -6487,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U29" t="n">
-        <v>2422.196584426364</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V29" t="n">
-        <v>2080.089775129883</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W29" t="n">
-        <v>1709.09074009817</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X29" t="n">
-        <v>1319.638135031227</v>
+        <v>2493.00317769825</v>
       </c>
       <c r="Y29" t="n">
-        <v>923.1474259518279</v>
+        <v>2096.512468618851</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>973.7913173233209</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
         <v>2146.089571124861</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.11912770411553</v>
+        <v>217.677939844913</v>
       </c>
       <c r="C31" t="n">
-        <v>62.11912770411553</v>
+        <v>217.677939844913</v>
       </c>
       <c r="D31" t="n">
-        <v>62.11912770411553</v>
+        <v>217.677939844913</v>
       </c>
       <c r="E31" t="n">
         <v>62.11912770411553</v>
@@ -6648,25 +6648,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>963.5661502456679</v>
+        <v>786.4471336718345</v>
       </c>
       <c r="T31" t="n">
-        <v>896.8676667102127</v>
+        <v>786.4471336718345</v>
       </c>
       <c r="U31" t="n">
-        <v>611.4288749521137</v>
+        <v>501.0083419137354</v>
       </c>
       <c r="V31" t="n">
-        <v>345.4495297729379</v>
+        <v>501.0083419137354</v>
       </c>
       <c r="W31" t="n">
-        <v>62.11912770411553</v>
+        <v>217.677939844913</v>
       </c>
       <c r="X31" t="n">
-        <v>62.11912770411553</v>
+        <v>217.677939844913</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.11912770411553</v>
+        <v>217.677939844913</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2073.376476849992</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="C32" t="n">
-        <v>1680.200975352922</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="D32" t="n">
-        <v>1294.75984656959</v>
+        <v>1344.017258398638</v>
       </c>
       <c r="E32" t="n">
-        <v>892.1763216861347</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F32" t="n">
-        <v>475.2818832161124</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G32" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T32" t="n">
-        <v>2870.361931640788</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>2870.361931640788</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V32" t="n">
-        <v>2870.361931640788</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W32" t="n">
-        <v>2870.361931640788</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X32" t="n">
-        <v>2870.361931640788</v>
+        <v>2032.743979359421</v>
       </c>
       <c r="Y32" t="n">
-        <v>2473.871222561389</v>
+        <v>1744.512004110035</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2920.748366514475</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>2750.543248580464</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>2594.910135482979</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>2439.351323342181</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2282.025388555154</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W34" t="n">
-        <v>3105.956385205776</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1433.096963477125</v>
+        <v>1321.097234053565</v>
       </c>
       <c r="C35" t="n">
-        <v>1433.096963477125</v>
+        <v>1321.097234053565</v>
       </c>
       <c r="D35" t="n">
-        <v>1433.096963477125</v>
+        <v>935.6561052702327</v>
       </c>
       <c r="E35" t="n">
-        <v>1030.51343859367</v>
+        <v>935.6561052702327</v>
       </c>
       <c r="F35" t="n">
-        <v>613.6190001236475</v>
+        <v>935.6561052702327</v>
       </c>
       <c r="G35" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H35" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6973,16 +6973,16 @@
         <v>2460.189498140842</v>
       </c>
       <c r="V35" t="n">
-        <v>2460.189498140842</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W35" t="n">
-        <v>2089.19046310913</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="X35" t="n">
-        <v>1833.591709188522</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="Y35" t="n">
-        <v>1833.591709188522</v>
+        <v>1721.591979764962</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7122,16 +7122,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>849.2563164731562</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>613.5372646413903</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U37" t="n">
-        <v>328.0984728832913</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V37" t="n">
-        <v>62.11912770411553</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W37" t="n">
         <v>62.11912770411553</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1510.526376601847</v>
+        <v>1274.772592554663</v>
       </c>
       <c r="C38" t="n">
-        <v>1117.350875104777</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="D38" t="n">
-        <v>1117.350875104777</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E38" t="n">
-        <v>714.7673502213215</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F38" t="n">
-        <v>297.8729117512993</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G38" t="n">
         <v>62.11912770411553</v>
@@ -7171,7 +7171,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7198,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T38" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U38" t="n">
-        <v>3067.963471491298</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="V38" t="n">
-        <v>3067.963471491298</v>
+        <v>2461.210652412402</v>
       </c>
       <c r="W38" t="n">
-        <v>2696.964436459586</v>
+        <v>2461.210652412402</v>
       </c>
       <c r="X38" t="n">
-        <v>2307.511831392642</v>
+        <v>2071.758047345459</v>
       </c>
       <c r="Y38" t="n">
-        <v>1911.021122313243</v>
+        <v>1675.26733826606</v>
       </c>
     </row>
     <row r="39">
@@ -7256,13 +7256,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
         <v>1863.93438008877</v>
@@ -7362,7 +7362,7 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>727.847098413902</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U40" t="n">
         <v>611.4288749521137</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1557.872172372308</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C41" t="n">
-        <v>1294.75984656959</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D41" t="n">
-        <v>1294.75984656959</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1763216861347</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F41" t="n">
-        <v>475.2818832161124</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7447,16 +7447,16 @@
         <v>3067.963471491298</v>
       </c>
       <c r="V41" t="n">
-        <v>2725.856662194817</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W41" t="n">
-        <v>2354.857627163104</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X41" t="n">
-        <v>2354.857627163104</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y41" t="n">
-        <v>1958.366918083705</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7599,16 +7599,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>611.4288749521137</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>345.4495297729379</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X43" t="n">
         <v>62.11912770411553</v>
@@ -7648,10 +7648,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7672,22 +7672,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T44" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.919837889168</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="V44" t="n">
-        <v>2855.919837889168</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="W44" t="n">
-        <v>2484.920802857455</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X44" t="n">
         <v>2484.920802857455</v>
@@ -7727,19 +7727,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
         <v>1974.833293963354</v>
@@ -7830,22 +7830,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="S46" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="T46" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U46" t="n">
-        <v>845.5091971691305</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V46" t="n">
-        <v>579.5298519899548</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W46" t="n">
-        <v>296.1994499211324</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
         <v>62.11912770411553</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7987,19 +7987,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>301.2346582324079</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>212.9227975229102</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>674.5394322581651</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>653.4271014745298</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>238.3374974274118</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>263.585098225357</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8464,13 +8464,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>580.6283116859817</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8537,13 +8537,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>471.7186805737883</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8692,10 +8692,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>417.2510275517577</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8707,10 +8707,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>464.6079711628806</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>159.9343611255898</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>270.6522400901334</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -8944,7 +8944,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>502.5559668112506</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9421,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9719,22 +9719,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>115.0989755892052</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>376.8285690715891</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10427,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10667,16 +10667,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,7 +10904,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10913,7 +10913,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11068,7 +11068,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11141,16 +11141,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,13 +11384,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N45" t="n">
-        <v>571.8744206036794</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22549,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>59.68129129864622</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -22609,13 +22609,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>69.00934534221801</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,16 +22761,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>165.708020294746</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22795,16 +22795,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>176.7996904456705</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>257.4171749949422</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -22998,13 +22998,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>56.63048077364809</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>75.97706831454906</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>46.45517681130863</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>154.8494418714223</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>95.76444978932722</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>93.04569644618071</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>76.13417240419915</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>331.2743194346656</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>209.9917129956978</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23706,7 +23706,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>255.7586551515612</v>
+        <v>232.7730953989295</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -23904,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>70.5823242475125</v>
+        <v>100.5400146614482</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23943,13 +23943,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.867748656681783</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>127.0828126797254</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>165.7080202947457</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>218.2417139205122</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
@@ -24265,16 +24265,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>109.4185936949529</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>112.8348354885682</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24414,25 +24414,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>134.7564242791754</v>
       </c>
       <c r="T25" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>15.12283831250681</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>125.2166954771688</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24651,10 +24651,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>87.62118754448929</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>373.5851664031127</v>
       </c>
       <c r="C29" t="n">
-        <v>254.1577494003206</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24888,16 +24888,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>25.44009657118107</v>
       </c>
       <c r="T31" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>152.8755068951985</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24982,10 +24982,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>107.1761464917126</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>89.83064772952822</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25131,16 +25131,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25159,19 +25159,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.025485834054962</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>132.5153126348725</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25362,7 +25362,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>87.62118754448949</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>175.6348817501649</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>118.4310875161833</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U40" t="n">
-        <v>167.3303626133476</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>128.7625439374076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>326.8863003027286</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>167.3303626133476</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>170.5074399346649</v>
+        <v>226.3894588468767</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>56.63048077364812</v>
       </c>
       <c r="S46" t="n">
         <v>200.7879229792761</v>
@@ -26079,7 +26079,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>621418.6194919242</v>
+        <v>621418.6194919248</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>621418.6194919242</v>
+        <v>621418.6194919246</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>621418.6194919244</v>
+        <v>621418.6194919248</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621418.6194919244</v>
+        <v>621418.6194919245</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621418.6194919246</v>
+        <v>621418.6194919248</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>700088.7629905549</v>
+        <v>700088.762990555</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>700088.7629905551</v>
+        <v>700088.762990555</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>700088.762990555</v>
+        <v>700088.7629905549</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700088.7629905549</v>
+        <v>700088.762990555</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700088.7629905551</v>
+        <v>700088.7629905547</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700088.7629905549</v>
+        <v>700088.762990555</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700088.762990555</v>
+        <v>700088.7629905549</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>700088.7629905549</v>
+        <v>700088.7629905547</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="C2" t="n">
         <v>191980.2613012998</v>
       </c>
       <c r="D2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="E2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="F2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="G2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="H2" t="n">
         <v>216278.5473416248</v>
       </c>
       <c r="I2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="J2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="K2" t="n">
         <v>216278.5473416247</v>
@@ -26346,13 +26346,13 @@
         <v>216278.5473416247</v>
       </c>
       <c r="M2" t="n">
+        <v>216278.5473416248</v>
+      </c>
+      <c r="N2" t="n">
         <v>216278.5473416247</v>
       </c>
-      <c r="N2" t="n">
-        <v>216278.5473416248</v>
-      </c>
       <c r="O2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="P2" t="n">
         <v>216278.5473416247</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50726.82133126163</v>
+        <v>50726.82133126157</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>44538.95791520675</v>
+        <v>44538.95791520669</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
         <v>47210.5370551278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99154.24516411196</v>
+        <v>-99828.27129033205</v>
       </c>
       <c r="C6" t="n">
-        <v>99041.56082763286</v>
+        <v>98367.53470141283</v>
       </c>
       <c r="D6" t="n">
-        <v>99041.56082763291</v>
+        <v>98367.53470141292</v>
       </c>
       <c r="E6" t="n">
-        <v>132669.1608276329</v>
+        <v>131995.1347014129</v>
       </c>
       <c r="F6" t="n">
-        <v>132669.1608276329</v>
+        <v>131995.1347014129</v>
       </c>
       <c r="G6" t="n">
-        <v>91983.78236346555</v>
+        <v>91452.68733160051</v>
       </c>
       <c r="H6" t="n">
-        <v>142710.6036947272</v>
+        <v>142179.5086628621</v>
       </c>
       <c r="I6" t="n">
-        <v>142710.6036947272</v>
+        <v>142179.5086628621</v>
       </c>
       <c r="J6" t="n">
-        <v>-12028.83067087619</v>
+        <v>-12559.92570274141</v>
       </c>
       <c r="K6" t="n">
-        <v>142710.6036947272</v>
+        <v>142179.508662862</v>
       </c>
       <c r="L6" t="n">
-        <v>142710.6036947271</v>
+        <v>142179.508662862</v>
       </c>
       <c r="M6" t="n">
-        <v>142710.6036947271</v>
+        <v>142179.5086628621</v>
       </c>
       <c r="N6" t="n">
-        <v>142710.6036947272</v>
+        <v>142179.5086628619</v>
       </c>
       <c r="O6" t="n">
-        <v>98171.64577952046</v>
+        <v>97640.55074765532</v>
       </c>
       <c r="P6" t="n">
-        <v>142710.6036947272</v>
+        <v>142179.508662862</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34707,19 +34707,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>151.5096066346806</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>63.35896009881382</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>582.1523102088532</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>503.7020498768026</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>148.7405620940785</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35184,13 +35184,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>431.5098203481975</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>381.6583337168701</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35427,10 +35427,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>314.3065239219554</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>77.4899037922565</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>127.593836910896</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35664,7 +35664,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35734,19 +35734,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>417.183853957084</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>22.71185353989332</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>286.7682222146709</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37633,7 +37633,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37788,7 +37788,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38104,13 +38104,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N45" t="n">
-        <v>486.5023077495127</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
